--- a/评审表.xlsx
+++ b/评审表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>团队编号与名称</t>
   </si>
@@ -55,35 +55,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>08Rookie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09Double H Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10读完文章再睡觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11我们又动了谁的奶酪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12独立团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13决胜 Poker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14异次元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15朱世杰团队</t>
+    <t>落款：08我要当主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16朱世杰团队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15异次元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14决胜 Poker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13独立团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12我们又动了谁的奶酪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11读完文章再睡觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10Double H Team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09Rookie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +132,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2B2B2B"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -163,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -489,7 +503,7 @@
     <col min="3" max="3" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42.75">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,28 +565,28 @@
     </row>
     <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -586,24 +600,29 @@
     </row>
     <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" ht="14.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/评审表.xlsx
+++ b/评审表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="10545" windowHeight="5475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>团队编号与名称</t>
   </si>
@@ -27,11 +27,55 @@
     <t>评审意见</t>
   </si>
   <si>
+    <t>02正义联盟</t>
+  </si>
+  <si>
+    <t>05AKATSUKI</t>
+  </si>
+  <si>
+    <t>06善学如泉</t>
+  </si>
+  <si>
+    <t>07泡面</t>
+  </si>
+  <si>
+    <t>09Rookie</t>
+  </si>
+  <si>
+    <t>10Double H Team</t>
+  </si>
+  <si>
+    <t>11读完文章再睡觉</t>
+  </si>
+  <si>
+    <t>12我们又动了谁的奶酪</t>
+  </si>
+  <si>
+    <t>13独立团</t>
+  </si>
+  <si>
+    <t>14决胜 Poker</t>
+  </si>
+  <si>
+    <t>15异次元</t>
+  </si>
+  <si>
+    <t>16朱世杰团队</t>
+  </si>
+  <si>
     <t>01牛肉面不要牛肉不要面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02正义联盟</t>
+    <t>优点：能够在多款音乐平台上使用
+缺点：歌曲版权争议，操作麻烦
+建议：简化操作，采取合作方式开放歌曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：有盈利环节，技术开发难度不高
+缺点：收益方面微薄，技术方面难度并未详述
+建议：适当增加收益方面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -39,55 +83,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>优点：无需登录，方便快捷，降低操作
+缺点：视频版权问题，没有收益
+建议：可以增加项目细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：减轻老师-学生压力，优化做题步骤
+缺点：题量上固定缺少灵活性，在裁判上依然需要大量的人工判断，缺少与其他相同做题系统不同的特点
+建议：增加创新点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：操作简单
+缺点：存在同款软件，比如百度网盘，竞争性不强，没有用户基础。链接丢失后，容易造成空间浪费。未来规划不明
+建议：优化链接生成有效期，过期则自动删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：用户多，相比鱼群更安全需要实名认证；线下交易，保证交易物品真实
+缺点：推广困难，市面上已有类似软件
+建议：可以设置“快递员”，方便平台线下交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：大量用户基础，用身份证做头像，确保信息真实有效
+缺点：推广困难，用户真实需求难以查询，无法确认用户婚姻情况
+建议：降低操作，逐步推广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：操作方便，无需注册即可登录，可以自娱自乐
+缺点：竞争性不强
+建议：丰富功能，增强竞争力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：有良好收益，弥补校内空白
+缺点：需要大量人工审核信息
+建议：增加环节之后的评价信誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：依靠微信，生命力与用户强大
+缺点：没有软件载体，竞争无法成形
+建议：丰富功能，增强竞争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：用户基数大，推广容易，盈利环节丰富
+缺点：骑手效率分配不高
+建议：优化骑手分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：操作便利
+缺点：市面上已有类似产品，需要获取对应APP权限
+建议：优化操作，可以尝试用其他方式获取数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：玩家自定义游戏规则
+缺点：游戏开发难度非常大，游戏功能局限性窄
+建议：丰富简单些的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">优点：闹钟样式和方法都十分新颖，样式丰富引人
+缺点：版权争端大，挂载后台功能是否会被清理
+建议：获取无版权争议或免费图片进行创作
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点：统一调度车位，快捷方便
+缺点：功能不明
+建议：功能详细描述下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>04代码那些事儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05AKATSUKI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06善学如泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07泡面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落款：08我要当主管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16朱世杰团队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15异次元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14决胜 Poker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13独立团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12我们又动了谁的奶酪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11读完文章再睡觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10Double H Team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09Rookie</t>
+    <t>落款：08我要当管家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +205,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF2B2B2B"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +248,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,33 +263,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADADA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADADA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDADADA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDADADA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADBDA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADBDA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDADBDA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDADBDA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE8E7E7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE8E7E7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE8E7E7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE8E7E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -504,124 +650,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="38.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>90</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="38.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="7">
+        <v>95</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="38.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>85</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="7">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="51">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.25">
-      <c r="A4" s="2" t="s">
+      <c r="B6" s="5">
+        <v>85</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.25">
-      <c r="A5" s="4" t="s">
+      <c r="B7" s="7">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="51">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.25">
-      <c r="A6" s="2" t="s">
+      <c r="B8" s="5">
+        <v>85</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="38.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="14.25">
-      <c r="A7" s="4" t="s">
+      <c r="B9" s="7">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="38.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="5">
+        <v>90</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="38.25">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="14.25">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" ht="14.25">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
+      <c r="B11" s="7">
+        <v>85</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="38.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>90</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="38.25">
       <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="38.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>85</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="51">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>95</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="38.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="14.25">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" ht="14.25">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="6" t="s">
-        <v>10</v>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
